--- a/doc/project_design.xlsx
+++ b/doc/project_design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fullstack\emartproject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6F54C2-770A-4B6B-B71E-CCC7EDF8389D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3795C6-0944-47A3-BA59-59EC8A39C5DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="870" windowWidth="21630" windowHeight="14655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4230" yWindow="945" windowWidth="21630" windowHeight="14655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flow" sheetId="2" r:id="rId1"/>
@@ -4167,8 +4167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13647643-B308-4366-9104-A57D64F05009}">
   <dimension ref="A4:B432"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A431" workbookViewId="0">
+      <selection activeCell="B305" sqref="B305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4251,7 +4251,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
